--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Fzd2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.326264479747</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H2">
-        <v>32.326264479747</v>
+        <v>97.56026</v>
       </c>
       <c r="I2">
-        <v>0.9834997469195925</v>
+        <v>0.9826873631596889</v>
       </c>
       <c r="J2">
-        <v>0.9834997469195925</v>
+        <v>0.9826873631596887</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.4937140227409</v>
+        <v>0.08106100000000001</v>
       </c>
       <c r="N2">
-        <v>15.4937140227409</v>
+        <v>0.243183</v>
       </c>
       <c r="O2">
-        <v>0.8578426008864789</v>
+        <v>0.004404799763312406</v>
       </c>
       <c r="P2">
-        <v>0.8578426008864789</v>
+        <v>0.004404799763312406</v>
       </c>
       <c r="Q2">
-        <v>500.8538972726872</v>
+        <v>2.636110745286667</v>
       </c>
       <c r="R2">
-        <v>500.8538972726872</v>
+        <v>23.72499670758</v>
       </c>
       <c r="S2">
-        <v>0.843687980868697</v>
+        <v>0.004328541064655889</v>
       </c>
       <c r="T2">
-        <v>0.843687980868697</v>
+        <v>0.004328541064655889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.326264479747</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H3">
-        <v>32.326264479747</v>
+        <v>97.56026</v>
       </c>
       <c r="I3">
-        <v>0.9834997469195925</v>
+        <v>0.9826873631596889</v>
       </c>
       <c r="J3">
-        <v>0.9834997469195925</v>
+        <v>0.9826873631596887</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56754104518179</v>
+        <v>15.70489833333333</v>
       </c>
       <c r="N3">
-        <v>2.56754104518179</v>
+        <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.142157399113521</v>
+        <v>0.8533935241547975</v>
       </c>
       <c r="P3">
-        <v>0.142157399113521</v>
+        <v>0.8533935241547975</v>
       </c>
       <c r="Q3">
-        <v>82.9990108891526</v>
+        <v>510.7246548911888</v>
       </c>
       <c r="R3">
-        <v>82.9990108891526</v>
+        <v>4596.5218940207</v>
       </c>
       <c r="S3">
-        <v>0.1398117660508954</v>
+        <v>0.8386190319892323</v>
       </c>
       <c r="T3">
-        <v>0.1398117660508954</v>
+        <v>0.8386190319892322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.542340297219847</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H4">
-        <v>0.542340297219847</v>
+        <v>97.56026</v>
       </c>
       <c r="I4">
-        <v>0.01650025308040759</v>
+        <v>0.9826873631596889</v>
       </c>
       <c r="J4">
-        <v>0.01650025308040759</v>
+        <v>0.9826873631596887</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>15.4937140227409</v>
+        <v>0.03299466666666667</v>
       </c>
       <c r="N4">
-        <v>15.4937140227409</v>
+        <v>0.098984</v>
       </c>
       <c r="O4">
-        <v>0.8578426008864789</v>
+        <v>0.001792907809228914</v>
       </c>
       <c r="P4">
-        <v>0.8578426008864789</v>
+        <v>0.001792907809228914</v>
       </c>
       <c r="Q4">
-        <v>8.40286546813261</v>
+        <v>1.072989419537778</v>
       </c>
       <c r="R4">
-        <v>8.40286546813261</v>
+        <v>9.656904775840001</v>
       </c>
       <c r="S4">
-        <v>0.01415462001778199</v>
+        <v>0.001761867847439576</v>
       </c>
       <c r="T4">
-        <v>0.01415462001778199</v>
+        <v>0.001761867847439576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,52 +717,300 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.542340297219847</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H5">
-        <v>0.542340297219847</v>
+        <v>97.56026</v>
       </c>
       <c r="I5">
-        <v>0.01650025308040759</v>
+        <v>0.9826873631596889</v>
       </c>
       <c r="J5">
-        <v>0.01650025308040759</v>
+        <v>0.9826873631596887</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.56754104518179</v>
+        <v>2.583925666666666</v>
       </c>
       <c r="N5">
-        <v>2.56754104518179</v>
+        <v>7.751776999999999</v>
       </c>
       <c r="O5">
-        <v>0.142157399113521</v>
+        <v>0.140408768272661</v>
       </c>
       <c r="P5">
-        <v>0.142157399113521</v>
+        <v>0.1404087682726611</v>
       </c>
       <c r="Q5">
-        <v>1.392480973568049</v>
+        <v>84.02948662022442</v>
       </c>
       <c r="R5">
-        <v>1.392480973568049</v>
+        <v>756.2653795820199</v>
       </c>
       <c r="S5">
-        <v>0.002345633062625607</v>
+        <v>0.1379779222583611</v>
       </c>
       <c r="T5">
-        <v>0.002345633062625607</v>
+        <v>0.1379779222583611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5729273333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.718782</v>
+      </c>
+      <c r="I6">
+        <v>0.01731263684031117</v>
+      </c>
+      <c r="J6">
+        <v>0.01731263684031117</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.08106100000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.243183</v>
+      </c>
+      <c r="O6">
+        <v>0.004404799763312406</v>
+      </c>
+      <c r="P6">
+        <v>0.004404799763312406</v>
+      </c>
+      <c r="Q6">
+        <v>0.04644206256733334</v>
+      </c>
+      <c r="R6">
+        <v>0.417978563106</v>
+      </c>
+      <c r="S6">
+        <v>7.625869865651629E-05</v>
+      </c>
+      <c r="T6">
+        <v>7.625869865651628E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5729273333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.718782</v>
+      </c>
+      <c r="I7">
+        <v>0.01731263684031117</v>
+      </c>
+      <c r="J7">
+        <v>0.01731263684031117</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>15.70489833333333</v>
+      </c>
+      <c r="N7">
+        <v>47.114695</v>
+      </c>
+      <c r="O7">
+        <v>0.8533935241547975</v>
+      </c>
+      <c r="P7">
+        <v>0.8533935241547975</v>
+      </c>
+      <c r="Q7">
+        <v>8.997765522387777</v>
+      </c>
+      <c r="R7">
+        <v>80.97988970148999</v>
+      </c>
+      <c r="S7">
+        <v>0.01477449216556533</v>
+      </c>
+      <c r="T7">
+        <v>0.01477449216556533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5729273333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.718782</v>
+      </c>
+      <c r="I8">
+        <v>0.01731263684031117</v>
+      </c>
+      <c r="J8">
+        <v>0.01731263684031117</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.03299466666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.098984</v>
+      </c>
+      <c r="O8">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="P8">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="Q8">
+        <v>0.01890354638755555</v>
+      </c>
+      <c r="R8">
+        <v>0.170131917488</v>
+      </c>
+      <c r="S8">
+        <v>3.10399617893381E-05</v>
+      </c>
+      <c r="T8">
+        <v>3.10399617893381E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5729273333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.718782</v>
+      </c>
+      <c r="I9">
+        <v>0.01731263684031117</v>
+      </c>
+      <c r="J9">
+        <v>0.01731263684031117</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.583925666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.751776999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.140408768272661</v>
+      </c>
+      <c r="P9">
+        <v>0.1404087682726611</v>
+      </c>
+      <c r="Q9">
+        <v>1.480401641734889</v>
+      </c>
+      <c r="R9">
+        <v>13.323614775614</v>
+      </c>
+      <c r="S9">
+        <v>0.002430846014299987</v>
+      </c>
+      <c r="T9">
+        <v>0.002430846014299987</v>
       </c>
     </row>
   </sheetData>
